--- a/Excel/Equipment.xlsx
+++ b/Excel/Equipment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\2020  - 2\캡스톤디자인\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CapstoneDesign_NetWOD\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A97EFEF7-3D00-4327-B439-F6431B220344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0A3626-3D69-4810-90F7-0518FD1639CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="1290" windowWidth="18000" windowHeight="9360" xr2:uid="{5A1A80AC-F749-45BB-A0C8-9A380EED41D8}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{5A1A80AC-F749-45BB-A0C8-9A380EED41D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,60 +483,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A82F1A-0AD6-475E-838C-AB34B2E1C209}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B9" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A9">
+    <sortCondition ref="A9"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
